--- a/Modbus地址.xlsx
+++ b/Modbus地址.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\STM32\Dehumidifier_20190807\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45804A0A-1D76-432D-9B96-FE04A53DBB7D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D85EF51-D0CE-49EE-911D-BCF79043FDFD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38990" yWindow="5000" windowWidth="16000" windowHeight="10830" xr2:uid="{A421503F-4E4B-4660-ABFD-279B12D55E43}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{A421503F-4E4B-4660-ABFD-279B12D55E43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="149">
   <si>
     <t>DISC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>0x01</t>
-  </si>
-  <si>
-    <t>0x01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -59,170 +56,532 @@
     <t>0x05</t>
   </si>
   <si>
+    <t>COILS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x07</t>
+  </si>
+  <si>
+    <t>0x08</t>
+  </si>
+  <si>
+    <t>INPUTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x09</t>
+  </si>
+  <si>
+    <t>HOLDINGS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干触电开关1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干触电开关2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干触电开关3</t>
+  </si>
+  <si>
+    <t>干触电开关4</t>
+  </si>
+  <si>
+    <t>干触电开关5</t>
+  </si>
+  <si>
+    <t>干触电开关6</t>
+  </si>
+  <si>
+    <t>常开继电器1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常开继电器2</t>
+  </si>
+  <si>
+    <t>常开继电器3</t>
+  </si>
+  <si>
+    <t>常开继电器4</t>
+  </si>
+  <si>
+    <t>常开常闭继电器1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常开常闭继电器2</t>
+  </si>
+  <si>
+    <t>常开常闭继电器3</t>
+  </si>
+  <si>
+    <t>常开常闭继电器4</t>
+  </si>
+  <si>
+    <t>NTC1 温度X10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTC2 温度X10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTC3 温度X10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTC4 温度X10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五合一 温度X10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五合一 湿度X10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五合一 PM2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五合一 TVOC等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五合一 CO2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC风机1调速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC风机2调速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC风机3调速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC风机4调速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300-1000（30%-100%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RHI 112A 通道一 温度X10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RHI 112A 通道一 湿度X10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RHI 112A 通道二 温度X10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RHI 112A 通道二 湿度X10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0x06</t>
-  </si>
-  <si>
-    <t>COILS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x07</t>
-  </si>
-  <si>
-    <t>0x08</t>
-  </si>
-  <si>
-    <t>INPUTS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从站状态(AQI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从站状态(CPS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标频率</t>
+  </si>
+  <si>
+    <t>总电流</t>
+  </si>
+  <si>
+    <t>反馈频率</t>
+  </si>
+  <si>
+    <t>压机线电流</t>
+  </si>
+  <si>
+    <t>模块故障标志1</t>
+  </si>
+  <si>
+    <t>模块故障标志2</t>
+  </si>
+  <si>
+    <t>DC电压</t>
+  </si>
+  <si>
+    <t>主阀开度</t>
+  </si>
+  <si>
+    <t>辅阀开度</t>
+  </si>
+  <si>
+    <t>外直流风机1风速</t>
+  </si>
+  <si>
+    <t>外直流风机2风速</t>
+  </si>
+  <si>
+    <t>工作状态标志1</t>
+  </si>
+  <si>
+    <t>输出标志1</t>
+  </si>
+  <si>
+    <t>输出标志2</t>
+  </si>
+  <si>
+    <t>输出标志3</t>
+  </si>
+  <si>
+    <t>故障标志1</t>
+  </si>
+  <si>
+    <t>故障标志2</t>
+  </si>
+  <si>
+    <t>故障标志3</t>
+  </si>
+  <si>
+    <t>故障标志4</t>
+  </si>
+  <si>
+    <t>故障标志5</t>
+  </si>
+  <si>
+    <t>状态标志2（预留）</t>
+  </si>
+  <si>
+    <t>内风机目标风速</t>
+  </si>
+  <si>
+    <t>状态标志1（预留）</t>
+  </si>
+  <si>
+    <t>控制标志</t>
+  </si>
+  <si>
+    <t>0x0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0x10</t>
-  </si>
-  <si>
-    <t>HOLDINGS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>干触电开关1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>干触电开关2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>干触电开关3</t>
-  </si>
-  <si>
-    <t>干触电开关4</t>
-  </si>
-  <si>
-    <t>干触电开关5</t>
-  </si>
-  <si>
-    <t>干触电开关6</t>
-  </si>
-  <si>
-    <t>常开继电器1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常开继电器2</t>
-  </si>
-  <si>
-    <t>常开继电器3</t>
-  </si>
-  <si>
-    <t>常开继电器4</t>
-  </si>
-  <si>
-    <t>常开常闭继电器1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常开常闭继电器2</t>
-  </si>
-  <si>
-    <t>常开常闭继电器3</t>
-  </si>
-  <si>
-    <t>常开常闭继电器4</t>
-  </si>
-  <si>
-    <t>NTC1 温度X10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTC2 温度X10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTC3 温度X10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTC4 温度X10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五合一 温度X10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五合一 湿度X10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五合一 PM2.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0x11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0x12</t>
-  </si>
-  <si>
-    <t>五合一 TVOC等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五合一 CO2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC风机1调速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC风机2调速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC风机3调速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC风机4调速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300-1000（30%-100%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RHI 112A 通道一 温度X10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RHI 112A 通道一 湿度X10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RHI 112A 通道二 温度X10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RHI 112A 通道二 湿度X10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1℃</t>
+  </si>
+  <si>
+    <t>0x30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行模式</t>
+  </si>
+  <si>
+    <t>内风机风速档位</t>
+  </si>
+  <si>
+    <t>制冷设定温度</t>
+  </si>
+  <si>
+    <t>制冷回差</t>
+  </si>
+  <si>
+    <t>制热设定温度</t>
+  </si>
+  <si>
+    <t>制热回差</t>
+  </si>
+  <si>
+    <t>0.1℃（默认25）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1℃（默认1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1℃（默认23）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-自动/1-制冷/2-除湿/4-制热（默认0）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-自动/1-低风/2-中风/3-高风（默认0）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境温度(0.1℃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排气温度(0.1℃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回气温度(0.1℃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘管温度(0.1℃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济进温度(0.1℃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济出温度(0.1℃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散热片温度(0.1℃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室内温度</t>
+  </si>
+  <si>
+    <t>室内盘管温度</t>
+  </si>
+  <si>
+    <t>内板故障标志6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +606,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -256,7 +624,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -279,13 +647,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -296,6 +677,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -612,16 +1002,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC7E6BB-0334-41B0-BD63-F5DCAA0B07CE}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.08203125" customWidth="1"/>
     <col min="4" max="4" width="5.9140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.4140625" bestFit="1" customWidth="1"/>
@@ -630,261 +1020,1033 @@
     <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.33203125" customWidth="1"/>
     <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="J7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="D8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="G10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="J11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="G12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="J12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="D14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="G14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>39</v>
+      <c r="J14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="D16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="G16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="J16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G40" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G42" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G44" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G46" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="J48" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+    </row>
+    <row r="55" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+    </row>
+    <row r="56" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J56" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J58" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J59" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+    </row>
+    <row r="61" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J61" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J62" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J63" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/Modbus地址.xlsx
+++ b/Modbus地址.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\STM32\Dehumidifier_20190807\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D85EF51-D0CE-49EE-911D-BCF79043FDFD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0081682-AFD0-4088-93CE-260B35D90A1D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{A421503F-4E4B-4660-ABFD-279B12D55E43}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="32190" xr2:uid="{A421503F-4E4B-4660-ABFD-279B12D55E43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,97 +491,98 @@
     <t>制冷设定温度</t>
   </si>
   <si>
+    <t>制热设定温度</t>
+  </si>
+  <si>
+    <t>制热回差</t>
+  </si>
+  <si>
+    <t>0.1℃（默认25）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1℃（默认1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1℃（默认23）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-自动/1-制冷/2-除湿/4-制热（默认0）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-自动/1-低风/2-中风/3-高风（默认0）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境温度(0.1℃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排气温度(0.1℃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回气温度(0.1℃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘管温度(0.1℃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济进温度(0.1℃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济出温度(0.1℃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散热片温度(0.1℃)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室内温度</t>
+  </si>
+  <si>
+    <t>室内盘管温度</t>
+  </si>
+  <si>
+    <t>内板故障标志6</t>
+  </si>
+  <si>
     <t>制冷回差</t>
-  </si>
-  <si>
-    <t>制热设定温度</t>
-  </si>
-  <si>
-    <t>制热回差</t>
-  </si>
-  <si>
-    <t>0.1℃（默认25）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1℃（默认1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1℃（默认23）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-自动/1-制冷/2-除湿/4-制热（默认0）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-自动/1-低风/2-中风/3-高风（默认0）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境温度(0.1℃)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排气温度(0.1℃)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回气温度(0.1℃)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盘管温度(0.1℃)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经济进温度(0.1℃)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经济出温度(0.1℃)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散热片温度(0.1℃)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>室内温度</t>
-  </si>
-  <si>
-    <t>室内盘管温度</t>
-  </si>
-  <si>
-    <t>内板故障标志6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,6 +611,22 @@
       <b/>
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -666,7 +683,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,6 +703,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1004,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC7E6BB-0334-41B0-BD63-F5DCAA0B07CE}">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1507,7 +1530,7 @@
       <c r="G22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="7" t="s">
         <v>54</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -1521,7 +1544,7 @@
       <c r="G23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="8" t="s">
         <v>55</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -1550,7 +1573,7 @@
         <v>87</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>87</v>
@@ -1619,7 +1642,7 @@
       <c r="G30" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="7" t="s">
         <v>61</v>
       </c>
       <c r="J30" s="4" t="s">
@@ -1633,7 +1656,7 @@
       <c r="G31" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="8" t="s">
         <v>62</v>
       </c>
       <c r="J31" s="1" t="s">
@@ -1647,7 +1670,7 @@
       <c r="G32" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J32" s="4" t="s">
@@ -1658,14 +1681,14 @@
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G33" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="8" t="s">
         <v>64</v>
       </c>
       <c r="J33" s="1" t="s">
@@ -1679,7 +1702,7 @@
       <c r="G34" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="8" t="s">
         <v>65</v>
       </c>
       <c r="J34" s="1" t="s">
@@ -1689,17 +1712,17 @@
         <v>123</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G35" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="8" t="s">
         <v>66</v>
       </c>
       <c r="J35" s="1" t="s">
@@ -1709,17 +1732,17 @@
         <v>124</v>
       </c>
       <c r="L35" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M35" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="36" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G36" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="8" t="s">
         <v>67</v>
       </c>
       <c r="J36" s="1" t="s">
@@ -1733,7 +1756,7 @@
       <c r="G37" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="8" t="s">
         <v>68</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -1747,7 +1770,7 @@
       <c r="G38" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="8" t="s">
         <v>69</v>
       </c>
       <c r="J38" s="1" t="s">
@@ -1761,7 +1784,7 @@
       <c r="G39" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="8" t="s">
         <v>70</v>
       </c>
       <c r="J39" s="1" t="s">
@@ -1789,7 +1812,7 @@
       <c r="G41" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="7" t="s">
         <v>72</v>
       </c>
       <c r="J41" s="1" t="s">
@@ -1804,7 +1827,7 @@
         <v>104</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>104</v>
@@ -1818,7 +1841,7 @@
         <v>105</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>105</v>
@@ -1832,7 +1855,7 @@
         <v>106</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>106</v>
@@ -1846,7 +1869,7 @@
         <v>107</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>107</v>
@@ -1860,7 +1883,7 @@
         <v>108</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>108</v>
@@ -1874,7 +1897,7 @@
         <v>109</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>109</v>
@@ -1955,10 +1978,10 @@
         <v>125</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="10:13" x14ac:dyDescent="0.3">
@@ -1966,13 +1989,13 @@
         <v>120</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="10:13" x14ac:dyDescent="0.3">
@@ -1980,13 +2003,13 @@
         <v>121</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="10:13" x14ac:dyDescent="0.3">
@@ -1994,13 +2017,13 @@
         <v>122</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="10:13" x14ac:dyDescent="0.3">
@@ -2011,42 +2034,42 @@
     </row>
     <row r="61" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J61" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L61" s="6" t="s">
         <v>112</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J62" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L62" s="6" t="s">
         <v>112</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J63" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L63" s="6"/>
       <c r="M63" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/Modbus地址.xlsx
+++ b/Modbus地址.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22105"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\STM32\Dehumidifier_20190807\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0081682-AFD0-4088-93CE-260B35D90A1D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D4AC64-1EBF-478E-8FE6-06DD3F391CF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="32190" xr2:uid="{A421503F-4E4B-4660-ABFD-279B12D55E43}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A421503F-4E4B-4660-ABFD-279B12D55E43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="155">
   <si>
     <t>DISC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -575,6 +575,30 @@
   </si>
   <si>
     <t>制冷回差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膨胀阀设定值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膨胀阀当前值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发外机室温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发外机盘温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发外机故障码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1027,27 +1051,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC7E6BB-0334-41B0-BD63-F5DCAA0B07CE}">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.08203125" customWidth="1"/>
-    <col min="4" max="4" width="5.9140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.125" customWidth="1"/>
+    <col min="4" max="4" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.25" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.375" customWidth="1"/>
+    <col min="10" max="10" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1076,7 +1100,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1106,7 +1130,7 @@
       </c>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1136,7 +1160,7 @@
       </c>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1166,7 +1190,7 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1196,7 +1220,7 @@
       </c>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1218,11 +1242,15 @@
       <c r="J6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1244,11 +1272,15 @@
       <c r="J7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>47</v>
       </c>
@@ -1272,7 +1304,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1296,7 +1328,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1318,7 +1350,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,7 +1372,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>74</v>
       </c>
@@ -1364,7 +1396,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>75</v>
       </c>
@@ -1388,7 +1420,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>76</v>
       </c>
@@ -1410,7 +1442,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>77</v>
       </c>
@@ -1430,7 +1462,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>78</v>
       </c>
@@ -1450,7 +1482,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>79</v>
       </c>
@@ -1470,7 +1502,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G18" s="1" t="s">
         <v>80</v>
       </c>
@@ -1484,7 +1516,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G19" s="1" t="s">
         <v>81</v>
       </c>
@@ -1498,7 +1530,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G20" s="1" t="s">
         <v>82</v>
       </c>
@@ -1512,7 +1544,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G21" s="1" t="s">
         <v>83</v>
       </c>
@@ -1526,7 +1558,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G22" s="1" t="s">
         <v>84</v>
       </c>
@@ -1540,7 +1572,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G23" s="1" t="s">
         <v>85</v>
       </c>
@@ -1554,7 +1586,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G24" s="4" t="s">
         <v>86</v>
       </c>
@@ -1568,7 +1600,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G25" s="1" t="s">
         <v>87</v>
       </c>
@@ -1582,7 +1614,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G26" s="4" t="s">
         <v>88</v>
       </c>
@@ -1596,7 +1628,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G27" s="1" t="s">
         <v>89</v>
       </c>
@@ -1610,7 +1642,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G28" s="4" t="s">
         <v>90</v>
       </c>
@@ -1624,7 +1656,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G29" s="1" t="s">
         <v>91</v>
       </c>
@@ -1638,7 +1670,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G30" s="4" t="s">
         <v>92</v>
       </c>
@@ -1652,7 +1684,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G31" s="1" t="s">
         <v>93</v>
       </c>
@@ -1666,7 +1698,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G32" s="4" t="s">
         <v>94</v>
       </c>
@@ -1684,7 +1716,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G33" s="1" t="s">
         <v>95</v>
       </c>
@@ -1698,7 +1730,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G34" s="1" t="s">
         <v>96</v>
       </c>
@@ -1718,7 +1750,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G35" s="1" t="s">
         <v>97</v>
       </c>
@@ -1738,7 +1770,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G36" s="1" t="s">
         <v>98</v>
       </c>
@@ -1752,7 +1784,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G37" s="1" t="s">
         <v>99</v>
       </c>
@@ -1766,7 +1798,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G38" s="1" t="s">
         <v>100</v>
       </c>
@@ -1780,7 +1812,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G39" s="1" t="s">
         <v>101</v>
       </c>
@@ -1794,7 +1826,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G40" s="4" t="s">
         <v>102</v>
       </c>
@@ -1808,7 +1840,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G41" s="1" t="s">
         <v>103</v>
       </c>
@@ -1822,7 +1854,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G42" s="4" t="s">
         <v>104</v>
       </c>
@@ -1836,7 +1868,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G43" s="1" t="s">
         <v>105</v>
       </c>
@@ -1850,7 +1882,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G44" s="4" t="s">
         <v>106</v>
       </c>
@@ -1864,7 +1896,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G45" s="1" t="s">
         <v>107</v>
       </c>
@@ -1878,7 +1910,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G46" s="4" t="s">
         <v>108</v>
       </c>
@@ -1892,7 +1924,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G47" s="1" t="s">
         <v>109</v>
       </c>
@@ -1906,7 +1938,13 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G48" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="J48" s="4" t="s">
         <v>110</v>
       </c>
@@ -1914,7 +1952,13 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="J49" s="1" t="s">
         <v>111</v>
       </c>
@@ -1922,7 +1966,13 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="J50" s="1" t="s">
         <v>113</v>
       </c>
@@ -1930,7 +1980,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:13" x14ac:dyDescent="0.2">
       <c r="J51" s="1" t="s">
         <v>114</v>
       </c>
@@ -1938,7 +1988,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:13" x14ac:dyDescent="0.2">
       <c r="J52" s="1" t="s">
         <v>115</v>
       </c>
@@ -1946,7 +1996,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:13" x14ac:dyDescent="0.2">
       <c r="J53" s="1" t="s">
         <v>116</v>
       </c>
@@ -1954,7 +2004,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:13" x14ac:dyDescent="0.2">
       <c r="J54" s="1" t="s">
         <v>117</v>
       </c>
@@ -1962,7 +2012,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="7:13" x14ac:dyDescent="0.2">
       <c r="J55" s="1" t="s">
         <v>118</v>
       </c>
@@ -1970,7 +2020,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="7:13" x14ac:dyDescent="0.2">
       <c r="J56" s="4" t="s">
         <v>119</v>
       </c>
@@ -1984,7 +2034,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="7:13" x14ac:dyDescent="0.2">
       <c r="J57" s="1" t="s">
         <v>120</v>
       </c>
@@ -1998,7 +2048,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="7:13" x14ac:dyDescent="0.2">
       <c r="J58" s="4" t="s">
         <v>121</v>
       </c>
@@ -2012,7 +2062,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="7:13" x14ac:dyDescent="0.2">
       <c r="J59" s="1" t="s">
         <v>122</v>
       </c>
@@ -2026,13 +2076,13 @@
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="7:13" x14ac:dyDescent="0.2">
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="7:13" x14ac:dyDescent="0.2">
       <c r="J61" s="6" t="s">
         <v>142</v>
       </c>
@@ -2046,7 +2096,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="7:13" x14ac:dyDescent="0.2">
       <c r="J62" s="6" t="s">
         <v>143</v>
       </c>
@@ -2060,7 +2110,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="7:13" x14ac:dyDescent="0.2">
       <c r="J63" s="6" t="s">
         <v>144</v>
       </c>
